--- a/Documents/1. 회의록/2024-01-04 회의록.xlsx
+++ b/Documents/1. 회의록/2024-01-04 회의록.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenTeamProjectFirst\Documents\1. 회의록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D786F8-4321-42D3-AA56-ACFEED123F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD224D6-D563-469E-B071-75692FE98789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="495" windowWidth="14520" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="회의록" sheetId="1" r:id="rId1"/>
@@ -644,10 +644,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -656,12 +656,11 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -673,6 +672,57 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -687,57 +737,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,9 +756,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -797,9 +796,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -832,26 +831,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -884,26 +866,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1079,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1105,174 +1070,174 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25" t="s">
+      <c r="H7" s="32"/>
+      <c r="I7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25" t="s">
+      <c r="J7" s="32"/>
+      <c r="K7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="27" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27" t="s">
+      <c r="H8" s="34"/>
+      <c r="I8" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="35"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="23" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23" t="s">
+      <c r="H9" s="39"/>
+      <c r="I9" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="24"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="24"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:13" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3"/>
@@ -1289,742 +1254,375 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="22"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="9"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B16" s="6"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" s="6"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="11"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="19" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="18"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="17"/>
     </row>
     <row r="21" spans="2:13" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="6"/>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="8"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="8"/>
+      <c r="C23" s="11"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B24" s="6"/>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="8"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="8"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="8"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B27" s="6"/>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="8"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="8"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B29" s="6"/>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="8"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B30" s="6"/>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="8"/>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B31" s="6"/>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="8"/>
+      <c r="M31" s="7"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B32" s="6"/>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="8"/>
+      <c r="M32" s="7"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B33" s="6"/>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="8"/>
+      <c r="M33" s="7"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B34" s="6"/>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="8"/>
+      <c r="M34" s="7"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B35" s="6"/>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="8"/>
+      <c r="M35" s="7"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B36" s="6"/>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="8"/>
+      <c r="M36" s="7"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B37" s="6"/>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="8"/>
+      <c r="M37" s="7"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B38" s="6"/>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="8"/>
+      <c r="M38" s="7"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B39" s="6"/>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="8"/>
+      <c r="M39" s="7"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B40" s="6"/>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="8"/>
+      <c r="M40" s="7"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B41" s="6"/>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="8"/>
+      <c r="M41" s="7"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B42" s="6"/>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="8"/>
+      <c r="M42" s="7"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B43" s="6"/>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="8"/>
+      <c r="M43" s="7"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B44" s="6"/>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="8"/>
+      <c r="M44" s="7"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B45" s="6"/>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="8"/>
+      <c r="M45" s="7"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="8"/>
+      <c r="M46" s="7"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B47" s="6"/>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="8"/>
+      <c r="M47" s="7"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B48" s="6"/>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="8"/>
+      <c r="M48" s="7"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="8"/>
+      <c r="M49" s="7"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B50" s="6"/>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="8"/>
+      <c r="M50" s="7"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B51" s="6"/>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="8"/>
+      <c r="M51" s="7"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B52" s="6"/>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="8"/>
+      <c r="M52" s="7"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="8"/>
+      <c r="M53" s="7"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B54" s="6"/>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="8"/>
+      <c r="M54" s="7"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B55" s="6"/>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="8"/>
+      <c r="M55" s="7"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="8"/>
+      <c r="M56" s="7"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="8"/>
+      <c r="M57" s="7"/>
     </row>
     <row r="58" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="15"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:M10"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="D6:G6"/>
@@ -2041,13 +1639,13 @@
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="D12:M12"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="D5:M5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.43307086614173229" top="0.94488188976377963" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
